--- a/xo-starter-excel/src/test/resources/META-INF/xo/excel/sheets.xlsx
+++ b/xo-starter-excel/src/test/resources/META-INF/xo/excel/sheets.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="15480" windowHeight="11640"/>
@@ -9,8 +9,49 @@
   <sheets>
     <sheet name="部门名称" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" calcOnSave="0"/>
+  <calcPr calcId="145621" calcOnSave="0"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>hesong</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:area(lastCell="F11")
+jx:each(items="departments",var="department",lastCell="F9",multisheet="sheetNames")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="department.employees",var="employee",lastCell="F8")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -68,26 +109,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>${department.employees.name}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>${department.employees.age}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>${department.employees.birthDate}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>${department.employees.payment}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>${department.employees.bonus}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>职员信息：</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -100,10 +121,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>$[D8*(1+E8)]//department.employees</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>$[SUM(D8)]</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -117,18 +134,42 @@
   </si>
   <si>
     <t>${department.name}</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>${employee.name}</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>${employee.age}</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>${employee.birthDate}</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>${employee.payment}</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>${employee.bonus}</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[D8*(1+E8)]</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -196,6 +237,14 @@
       <sz val="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -383,11 +432,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -461,6 +515,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -495,6 +550,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -670,14 +726,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
@@ -688,12 +742,12 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -711,9 +765,9 @@
       <c r="P1"/>
       <c r="Q1"/>
     </row>
-    <row r="2" spans="1:17" ht="30" customHeight="1">
+    <row r="2" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -721,7 +775,7 @@
       <c r="E2" s="25"/>
       <c r="F2" s="26"/>
     </row>
-    <row r="3" spans="1:17" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:17" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
@@ -752,7 +806,7 @@
       <c r="P3"/>
       <c r="Q3"/>
     </row>
-    <row r="4" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -769,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -783,7 +837,7 @@
       <c r="P4"/>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -802,9 +856,9 @@
       <c r="P5"/>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" ht="30" customHeight="1">
+    <row r="6" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -812,7 +866,7 @@
       <c r="E6" s="25"/>
       <c r="F6" s="26"/>
     </row>
-    <row r="7" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>4</v>
       </c>
@@ -843,24 +897,24 @@
       <c r="P7"/>
       <c r="Q7"/>
     </row>
-    <row r="8" spans="1:17" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:17" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -874,18 +928,18 @@
       <c r="P8"/>
       <c r="Q8"/>
     </row>
-    <row r="9" spans="1:17" s="6" customFormat="1" ht="30" customHeight="1">
+    <row r="9" spans="1:17" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="20" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="21" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -899,7 +953,7 @@
       <c r="P9"/>
       <c r="Q9"/>
     </row>
-    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -907,7 +961,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:17" s="6" customFormat="1" ht="30" customHeight="1">
+    <row r="11" spans="1:17" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>11</v>
       </c>
@@ -916,7 +970,7 @@
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="22" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -940,5 +994,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>